--- a/presupuesto_final.xlsx
+++ b/presupuesto_final.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6425889290</v>
+        <v>2327</v>
       </c>
     </row>
   </sheetData>
